--- a/Documentation/entity_system/entity_module_BOM.xlsx
+++ b/Documentation/entity_system/entity_module_BOM.xlsx
@@ -408,7 +408,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -418,7 +418,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
     <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
@@ -444,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K17" totalsRowShown="0">
+  <autoFilter ref="A1:K17"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="15" name="Description"/>
@@ -752,11 +751,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +997,7 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>0.3</v>
       </c>
@@ -1028,7 +1030,7 @@
       <c r="J7" s="3">
         <v>4</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>1.8</v>
       </c>
@@ -1061,7 +1063,7 @@
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>0.2</v>
       </c>
@@ -1305,28 +1307,28 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>1</v>
       </c>
       <c r="K16" s="2">
@@ -1364,54 +1366,30 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
         <f>SUM(Table3[Quantity])</f>
         <v>33</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K19" s="8">
         <f>SUM(Table3[Total])</f>
         <v>24.27</v>
       </c>
     </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1571,8 +1549,6 @@
     <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
@@ -1629,7 +1605,7 @@
     <hyperlink ref="G17" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup scale="47" orientation="landscape" r:id="rId53"/>
   <tableParts count="1">
     <tablePart r:id="rId54"/>
   </tableParts>
